--- a/biology/Médecine/Paul_Caujole/Paul_Caujole.xlsx
+++ b/biology/Médecine/Paul_Caujole/Paul_Caujole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Caujole est un homme politique français né le 11 octobre 1878 à Pamiers (Ariège) et décédé le 27 août 1961 à Gaudiès (Ariège).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin, il est conseiller général de 1925 à 1929 et député de la Seine de 1928 à 1932. Membre du comité directeur de l'Alliance démocratique, il siège au groupe des Républicains de gauche. 
 Paul Caujole a été élève de l'Ecole de santé militaire à Lyon. Sa thèse a pour objet "La médecine et les médecins dans l'œuvre de Balzac". Le sujet lui avait été suggéré par le professeur Lacassagne et par Edouard Herriot, alors professeur de rhétorique à Lyon. 
